--- a/data/brief_parent.xlsx
+++ b/data/brief_parent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Proposal /proposal_measures/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7397EDAF-5DE1-1D42-8F43-B00D1D5B51EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF33B68-DDDA-9B4A-953F-274BD5AC431C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36140" yWindow="5940" windowWidth="27240" windowHeight="15300" xr2:uid="{A60831DE-5E2D-C24C-8894-258FF18B7AEB}"/>
+    <workbookView xWindow="340" yWindow="700" windowWidth="27240" windowHeight="15300" xr2:uid="{A60831DE-5E2D-C24C-8894-258FF18B7AEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -464,7 +464,7 @@
         <v>51</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -475,7 +475,7 @@
         <v>65</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -486,7 +486,7 @@
         <v>57</v>
       </c>
       <c r="C4">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -497,7 +497,7 @@
         <v>61</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -508,7 +508,7 @@
         <v>68</v>
       </c>
       <c r="C6">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -519,7 +519,7 @@
         <v>66</v>
       </c>
       <c r="C7">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -530,7 +530,7 @@
         <v>53</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -541,7 +541,7 @@
         <v>59</v>
       </c>
       <c r="C9">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -552,7 +552,7 @@
         <v>56</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -574,7 +574,7 @@
         <v>60</v>
       </c>
       <c r="C12">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -585,7 +585,7 @@
         <v>56</v>
       </c>
       <c r="C13">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -596,7 +596,7 @@
         <v>57</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/data/brief_parent.xlsx
+++ b/data/brief_parent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Proposal /proposal_measures/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF33B68-DDDA-9B4A-953F-274BD5AC431C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E5BA50-CCA9-7343-B539-4FEA048ACE9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="700" windowWidth="27240" windowHeight="15300" xr2:uid="{A60831DE-5E2D-C24C-8894-258FF18B7AEB}"/>
+    <workbookView xWindow="34180" yWindow="1940" windowWidth="27240" windowHeight="15300" xr2:uid="{A60831DE-5E2D-C24C-8894-258FF18B7AEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
